--- a/Requirements/Traceability Matrix.xlsx
+++ b/Requirements/Traceability Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipedwards/Documents/College/Systems/project/Requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BCD6FA-F296-EE40-99D0-8DA1CB2FF985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E529EF2C-1272-E54B-B223-B4710013831B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{2DA3B06B-4AD1-C742-B7F4-74EDD9936579}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20640" xr2:uid="{2DA3B06B-4AD1-C742-B7F4-74EDD9936579}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Server</t>
   </si>
@@ -113,13 +113,34 @@
     <t>Display messages</t>
   </si>
   <si>
-    <t>Design</t>
-  </si>
-  <si>
     <t>By: Phillip Edwards, Travis Nagle, Aaron Shingleton, Jason Self</t>
   </si>
   <si>
     <t>Traceability Matrix for Discord Project</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Project Description</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>A simple version of a discord backend built in C</t>
+  </si>
+  <si>
+    <t>Discord Projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Related Design </t>
+  </si>
+  <si>
+    <t>Requirement ID</t>
   </si>
 </sst>
 </file>
@@ -162,7 +183,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,8 +208,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -259,7 +292,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -269,6 +304,97 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -276,51 +402,15 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -330,53 +420,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,9 +506,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -435,7 +546,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -541,7 +652,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,7 +794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,170 +802,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73628A33-BEA4-A943-99F7-9F5D94C15EE7}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="131.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" customWidth="1"/>
+    <col min="1" max="1" width="133.6640625" customWidth="1"/>
+    <col min="2" max="2" width="115.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B9" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C9" s="21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="D9" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="C17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>7</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>9</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
